--- a/biology/Botanique/Psilocybe_montana/Psilocybe_montana.xlsx
+++ b/biology/Botanique/Psilocybe_montana/Psilocybe_montana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psilocybe roux sombre, Psilocybe montagnard
 Psilocybe montana, le Psilocybe montagnard ou Psilocybe roux sombre[réf. nécessaire], est une espèce de champignons de la famille des Strophariaceae. Il s'agit d'une espèce toxique.
@@ -512,9 +524,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (19 janvier 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (19 janvier 2023) :
 Psilocybe montana f. montana
 Psilocybe montana var. macrospora Noordel. &amp; Verduin, 1999
 Psilocybe montana var. montana</t>
@@ -545,11 +559,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Psilocybe montana (Pers.) P. Kumm., 1871[1],[2].
-L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus montanus Pers., 1796[1].
-Psilocybe montana a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Psilocybe montana (Pers.) P. Kumm., 1871,.
+L'espèce a été initialement classée dans le genre Agaricus sous le basionyme Agaricus montanus Pers., 1796.
+Psilocybe montana a pour synonymes :
 Agaricus atrorufus Schaeff., 1774
 Agaricus montanus Pers., 1796
 Astylospora lateritia Murrill, 1918
@@ -582,7 +598,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(de) Paul Kummer, Der Führer in die Pilzkunde : Anleitung zum methodischen, leichten und sichern Bestimmen der in Deutschland vorkommenden Pilze : mit Ausnahme der Schimmel- und allzu winzigen Schleim- und Kern-Pilzchen, Zerbst, 1871, 146 p. (DOI 10.5962/BHL.TITLE.50494, lire en ligne)</t>
         </is>
